--- a/R/analysis/data/Pt_29_Control.xlsx
+++ b/R/analysis/data/Pt_29_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0.58</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.37</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>3.54</v>
@@ -635,16 +635,16 @@
         <v>1.39</v>
       </c>
       <c r="K4" t="n">
-        <v>5.04</v>
+        <v>1.08</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.77</v>
+        <v>3.56</v>
       </c>
       <c r="M4" t="n">
-        <v>4.12</v>
+        <v>0.83</v>
       </c>
       <c r="N4" t="n">
-        <v>0.58</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0.58</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>1.87</v>
       </c>
       <c r="L6" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
@@ -815,16 +815,16 @@
         <v>0.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.82</v>
+        <v>0.42</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.3</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="n">
-        <v>2.83</v>
+        <v>0.47</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.33</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0.58</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1.57</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.86</v>
+        <v>2.86</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -991,16 +991,16 @@
         <v>0.81</v>
       </c>
       <c r="K10" t="n">
-        <v>3.86</v>
+        <v>0.18</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.13</v>
+        <v>2.73</v>
       </c>
       <c r="M10" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.17</v>
+        <v>3.16</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>1.41</v>
       </c>
       <c r="N11" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0.46</v>
@@ -1116,7 +1116,7 @@
         <v>2.16</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M12" t="n">
         <v>0.71</v>
@@ -1173,16 +1173,16 @@
         <v>1.26</v>
       </c>
       <c r="K13" t="n">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="M13" t="n">
-        <v>3.89</v>
+        <v>1.77</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.25</v>
+        <v>2.75</v>
       </c>
       <c r="O13" t="n">
         <v>0.18</v>
@@ -1242,7 +1242,7 @@
         <v>2.08</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>1.51</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1349,16 +1349,16 @@
         <v>0.98</v>
       </c>
       <c r="K16" t="n">
-        <v>4.26</v>
+        <v>0.59</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.42</v>
+        <v>3.02</v>
       </c>
       <c r="M16" t="n">
-        <v>5.89</v>
+        <v>0.23</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.17</v>
+        <v>4.16</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>2.89</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1470,7 +1470,7 @@
         <v>1.72</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1525,16 +1525,16 @@
         <v>1.27</v>
       </c>
       <c r="K19" t="n">
-        <v>4.26</v>
+        <v>0.59</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.42</v>
+        <v>3.02</v>
       </c>
       <c r="M19" t="n">
-        <v>4.48</v>
+        <v>1.65</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.17</v>
+        <v>3.16</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1594,7 +1594,7 @@
         <v>1.53</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.33</v>
+        <v>1.33</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>1.5</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.71</v>
@@ -1705,16 +1705,16 @@
         <v>0.96</v>
       </c>
       <c r="K22" t="n">
-        <v>3.78</v>
+        <v>1.31</v>
       </c>
       <c r="L22" t="n">
-        <v>0.92</v>
+        <v>2.67</v>
       </c>
       <c r="M22" t="n">
-        <v>3.24</v>
+        <v>1.36</v>
       </c>
       <c r="N22" t="n">
-        <v>0.96</v>
+        <v>2.29</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0.71</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>1.26</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.63</v>
@@ -1885,16 +1885,16 @@
         <v>0.86</v>
       </c>
       <c r="K25" t="n">
-        <v>3.36</v>
+        <v>0.18</v>
       </c>
       <c r="L25" t="n">
-        <v>0.12</v>
+        <v>2.38</v>
       </c>
       <c r="M25" t="n">
-        <v>3.18</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>1.15</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.67</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="n">
         <v>0.71</v>
@@ -2065,16 +2065,16 @@
         <v>1.16</v>
       </c>
       <c r="K28" t="n">
-        <v>2.95</v>
+        <v>0.59</v>
       </c>
       <c r="L28" t="n">
-        <v>0.42</v>
+        <v>2.08</v>
       </c>
       <c r="M28" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
